--- a/etc/template.xlsx
+++ b/etc/template.xlsx
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -638,13 +638,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,13 +671,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,18 +696,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,16 +710,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,17 +734,375 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -897,6 +1249,28 @@
       <font>
         <sz val="11"/>
         <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1198,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1219,11 +1593,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
       <c r="F1" s="7"/>
       <c r="G1" s="1"/>
@@ -1233,8 +1607,8 @@
       <c r="K1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1321,12 +1695,12 @@
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="32" t="s">
         <v>19</v>
       </c>
@@ -1343,21 +1717,17 @@
         <f>DATE($E$3,$E$4,B6)</f>
         <v>43101</v>
       </c>
-      <c r="D6" s="37">
-        <v>0.79166666666666663</v>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39" t="str">
+        <f>IF(E6-D6&lt;&gt;0,(E6-D6)*24-F6,"")</f>
+        <v/>
       </c>
-      <c r="E6" s="37">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39">
-        <f>IF(E6-D6&lt;&gt;0,(E6-D6)*24-F6,"")</f>
-        <v>1.0000000000000018</v>
-      </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
     </row>
@@ -1370,8 +1740,8 @@
         <f>DATE($E$3,$E$4,B7)</f>
         <v>43102</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="38"/>
       <c r="G7" s="39" t="str">
         <f>IF(E7-D7&lt;&gt;0,(E7-D7)*24-F7,"")</f>
@@ -1383,10 +1753,10 @@
       <c r="I7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
     </row>
@@ -1399,8 +1769,8 @@
         <f>DATE($E$3,$E$4,B8)</f>
         <v>43103</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="38"/>
       <c r="G8" s="39" t="str">
         <f>IF(E8-D8&lt;&gt;0,(E8-D8)*24-F8,"")</f>
@@ -1408,10 +1778,10 @@
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
     </row>
@@ -1424,8 +1794,8 @@
         <f>DATE($E$3,$E$4,B9)</f>
         <v>43104</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39" t="str">
         <f>IF(E9-D9&lt;&gt;0,(E9-D9)*24-F9,"")</f>
@@ -1433,10 +1803,10 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
     </row>
@@ -1446,11 +1816,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="36">
-        <f>DATE($E$3,$E$4,B10)</f>
+        <f t="shared" ref="C10:C13" si="0">DATE($E$3,$E$4,B10)</f>
         <v>43105</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="44"/>
       <c r="G10" s="39" t="str">
         <f>IF(E10-D10&lt;&gt;0,(E10-D10)*24-F10,"")</f>
@@ -1458,10 +1828,10 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
     </row>
@@ -1474,8 +1844,8 @@
         <f>DATE($E$3,$E$4,B11)</f>
         <v>43106</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="38"/>
       <c r="G11" s="39" t="str">
         <f>IF(E11-D11&lt;&gt;0,(E11-D11)*24-F11,"")</f>
@@ -1483,10 +1853,10 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
     </row>
@@ -1499,8 +1869,8 @@
         <f>DATE($E$3,$E$4,B12)</f>
         <v>43107</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="38"/>
       <c r="G12" s="39" t="str">
         <f>IF(E12-D12&lt;&gt;0,(E12-D12)*24-F12,"")</f>
@@ -1508,10 +1878,10 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="40"/>
       <c r="O12" s="40"/>
     </row>
@@ -1524,8 +1894,8 @@
         <f>DATE($E$3,$E$4,B13)</f>
         <v>43108</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="38"/>
       <c r="G13" s="39" t="str">
         <f>IF(E13-D13&lt;&gt;0,(E13-D13)*24-F13,"")</f>
@@ -1533,10 +1903,10 @@
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
     </row>
@@ -1549,19 +1919,19 @@
         <f>DATE($E$3,$E$4,B14)</f>
         <v>43109</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="45" t="str">
+      <c r="G14" s="39" t="str">
         <f>IF(E14-D14&lt;&gt;0,(E14-D14)*24-F14,"")</f>
         <v/>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
     </row>
@@ -1574,8 +1944,8 @@
         <f>DATE($E$3,$E$4,B15)</f>
         <v>43110</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="38"/>
       <c r="G15" s="39" t="str">
         <f>IF(E15-D15&lt;&gt;0,(E15-D15)*24-F15,"")</f>
@@ -1583,10 +1953,10 @@
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
     </row>
@@ -1599,8 +1969,8 @@
         <f>DATE($E$3,$E$4,B16)</f>
         <v>43111</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="38"/>
       <c r="G16" s="39" t="str">
         <f>IF(E16-D16&lt;&gt;0,(E16-D16)*24-F16,"")</f>
@@ -1608,10 +1978,10 @@
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
     </row>
@@ -1624,19 +1994,19 @@
         <f>DATE($E$3,$E$4,B17)</f>
         <v>43112</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="45" t="str">
+      <c r="G17" s="39" t="str">
         <f>IF(E17-D17&lt;&gt;0,(E17-D17)*24-F17,"")</f>
         <v/>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
     </row>
@@ -1649,8 +2019,8 @@
         <f>DATE($E$3,$E$4,B18)</f>
         <v>43113</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="38"/>
       <c r="G18" s="39" t="str">
         <f>IF(E18-D18&lt;&gt;0,(E18-D18)*24-F18,"")</f>
@@ -1658,10 +2028,10 @@
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
     </row>
@@ -1674,8 +2044,8 @@
         <f>DATE($E$3,$E$4,B19)</f>
         <v>43114</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="38"/>
       <c r="G19" s="39" t="str">
         <f>IF(E19-D19&lt;&gt;0,(E19-D19)*24-F19,"")</f>
@@ -1683,10 +2053,10 @@
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
     </row>
@@ -1699,8 +2069,8 @@
         <f>DATE($E$3,$E$4,B20)</f>
         <v>43115</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="38"/>
       <c r="G20" s="39" t="str">
         <f>IF(E20-D20&lt;&gt;0,(E20-D20)*24-F20,"")</f>
@@ -1708,10 +2078,10 @@
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
     </row>
@@ -1724,19 +2094,19 @@
         <f>DATE($E$3,$E$4,B21)</f>
         <v>43116</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="45" t="str">
+      <c r="G21" s="39" t="str">
         <f>IF(E21-D21&lt;&gt;0,(E21-D21)*24-F21,"")</f>
         <v/>
       </c>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
     </row>
@@ -1749,8 +2119,8 @@
         <f>DATE($E$3,$E$4,B22)</f>
         <v>43117</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="38"/>
       <c r="G22" s="39" t="str">
         <f>IF(E22-D22&lt;&gt;0,(E22-D22)*24-F22,"")</f>
@@ -1758,10 +2128,10 @@
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
     </row>
@@ -1783,10 +2153,10 @@
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
     </row>
@@ -1800,18 +2170,18 @@
         <v>43119</v>
       </c>
       <c r="D24" s="43"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="44" t="str">
+      <c r="E24" s="43"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="39" t="str">
         <f>IF(E24-D24&lt;&gt;0,(E24-D24)*24-F24,"")</f>
         <v/>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
     </row>
@@ -1824,8 +2194,8 @@
         <f>DATE($E$3,$E$4,B25)</f>
         <v>43120</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="38"/>
       <c r="G25" s="39" t="str">
         <f>IF(E25-D25&lt;&gt;0,(E25-D25)*24-F25,"")</f>
@@ -1833,10 +2203,10 @@
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
     </row>
@@ -1849,8 +2219,8 @@
         <f>DATE($E$3,$E$4,B26)</f>
         <v>43121</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="38"/>
       <c r="G26" s="39" t="str">
         <f>IF(E26-D26&lt;&gt;0,(E26-D26)*24-F26,"")</f>
@@ -1858,10 +2228,10 @@
       </c>
       <c r="H26" s="40"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="63"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
     </row>
@@ -1874,8 +2244,8 @@
         <f>DATE($E$3,$E$4,B27)</f>
         <v>43122</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="38"/>
       <c r="G27" s="39" t="str">
         <f>IF(E27-D27&lt;&gt;0,(E27-D27)*24-F27,"")</f>
@@ -1883,10 +2253,10 @@
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="63"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
     </row>
@@ -1899,19 +2269,19 @@
         <f>DATE($E$3,$E$4,B28)</f>
         <v>43123</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="45" t="str">
+      <c r="G28" s="39" t="str">
         <f>IF(E28-D28&lt;&gt;0,(E28-D28)*24-F28,"")</f>
         <v/>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
     </row>
@@ -1924,8 +2294,8 @@
         <f>DATE($E$3,$E$4,B29)</f>
         <v>43124</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="38"/>
       <c r="G29" s="39" t="str">
         <f>IF(E29-D29&lt;&gt;0,(E29-D29)*24-F29,"")</f>
@@ -1933,10 +2303,10 @@
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="63"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="40"/>
       <c r="O29" s="40"/>
     </row>
@@ -1949,8 +2319,8 @@
         <f>DATE($E$3,$E$4,B30)</f>
         <v>43125</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="38"/>
       <c r="G30" s="39" t="str">
         <f>IF(E30-D30&lt;&gt;0,(E30-D30)*24-F30,"")</f>
@@ -1958,10 +2328,10 @@
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="63"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
     </row>
@@ -1975,18 +2345,18 @@
         <v>43126</v>
       </c>
       <c r="D31" s="43"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="44" t="str">
+      <c r="E31" s="43"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="39" t="str">
         <f>IF(E31-D31&lt;&gt;0,(E31-D31)*24-F31,"")</f>
         <v/>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="63"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
       <c r="N31" s="40"/>
       <c r="O31" s="40"/>
     </row>
@@ -1999,8 +2369,8 @@
         <f>DATE($E$3,$E$4,B32)</f>
         <v>43127</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="38"/>
       <c r="G32" s="39" t="str">
         <f>IF(E32-D32&lt;&gt;0,(E32-D32)*24-F32,"")</f>
@@ -2008,10 +2378,10 @@
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="41"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="63"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="40"/>
       <c r="O32" s="40"/>
     </row>
@@ -2024,8 +2394,8 @@
         <f>DATE($E$3,$E$4,B33)</f>
         <v>43128</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="38"/>
       <c r="G33" s="39" t="str">
         <f>IF(E33-D33&lt;&gt;0,(E33-D33)*24-F33,"")</f>
@@ -2033,10 +2403,10 @@
       </c>
       <c r="H33" s="40"/>
       <c r="I33" s="41"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="63"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="64"/>
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
     </row>
@@ -2058,10 +2428,10 @@
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="41"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="63"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="40"/>
       <c r="O34" s="40"/>
     </row>
@@ -2074,8 +2444,8 @@
         <f>DATE($E$3,$E$4,B35)</f>
         <v>43130</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="38"/>
       <c r="G35" s="39" t="str">
         <f>IF(E35-D35&lt;&gt;0,(E35-D35)*24-F35,"")</f>
@@ -2083,24 +2453,24 @@
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="41"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="40"/>
       <c r="O35" s="40"/>
     </row>
     <row r="36" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="46">
+      <c r="B36" s="45">
         <v>31</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="36">
         <f>DATE($E$3,$E$4,B36)</f>
         <v>43131</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="38"/>
       <c r="G36" s="39" t="str">
         <f>IF(E36-D36&lt;&gt;0,(E36-D36)*24-F36,"")</f>
@@ -2108,32 +2478,32 @@
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="51">
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="49">
         <f>SUM(G6:G36)</f>
-        <v>1.0000000000000018</v>
+        <v>0</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
     </row>
     <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -2156,12 +2526,12 @@
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="8">
         <f>G37*1500+kotu!M40</f>
-        <v>1500.0000000000027</v>
+        <v>0</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>8</v>
@@ -2174,7 +2544,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="57" t="s">
+      <c r="O39" s="55" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2200,7 +2570,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="55"/>
+      <c r="O40" s="53"/>
     </row>
     <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
@@ -2217,17 +2587,17 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="55"/>
+      <c r="O41" s="53"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2236,7 +2606,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="56"/>
+      <c r="O42" s="54"/>
     </row>
     <row r="43" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
@@ -2244,9 +2614,9 @@
         <v>23</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2263,9 +2633,9 @@
         <v>24</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2282,9 +2652,9 @@
         <v>25</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2301,9 +2671,9 @@
         <v>26</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2320,9 +2690,9 @@
         <v>27</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="8"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2337,8 +2707,8 @@
       <c r="A48" s="1"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="65"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2352,39 +2722,39 @@
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="53"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
       <c r="N49" s="28"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="51" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="53"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
       <c r="N50" s="28"/>
       <c r="O50" s="1"/>
     </row>
@@ -18540,16 +18910,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B42:F42"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D46:F46"/>
@@ -18566,72 +18942,66 @@
     <mergeCell ref="J29:M29"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B3 B5:C5 B37:C38 C3:C5 C47 B40:C41 B48:C1000 B43:C46 B42">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B36 D6:G36">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8 C11:C36">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="equal">
       <formula>$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8 C11:C36">
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 E31">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="6" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 E29 E32 E36">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18738,18 +19108,18 @@
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="10" t="s">
         <v>4</v>
       </c>
@@ -18758,9 +19128,9 @@
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
@@ -18782,9 +19152,9 @@
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="8" t="s">
         <v>5</v>
       </c>
@@ -18806,9 +19176,9 @@
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
@@ -18830,9 +19200,9 @@
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="8" t="s">
         <v>5</v>
       </c>
@@ -18854,9 +19224,9 @@
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="8" t="s">
         <v>5</v>
       </c>
@@ -18880,9 +19250,9 @@
         <v>3</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="8" t="s">
         <v>5</v>
       </c>
@@ -18904,9 +19274,9 @@
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="8" t="s">
         <v>5</v>
       </c>
@@ -18928,9 +19298,9 @@
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
@@ -18952,9 +19322,9 @@
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="8" t="s">
         <v>5</v>
       </c>
@@ -18976,9 +19346,9 @@
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
@@ -19000,9 +19370,9 @@
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="8" t="s">
         <v>5</v>
       </c>
@@ -19024,9 +19394,9 @@
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="8" t="s">
         <v>5</v>
       </c>
@@ -19048,9 +19418,9 @@
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="8" t="s">
         <v>5</v>
       </c>
@@ -19072,9 +19442,9 @@
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="8" t="s">
         <v>5</v>
       </c>
@@ -19096,9 +19466,9 @@
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="8" t="s">
         <v>5</v>
       </c>
@@ -19120,9 +19490,9 @@
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="8" t="s">
         <v>5</v>
       </c>
@@ -19144,9 +19514,9 @@
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="8" t="s">
         <v>5</v>
       </c>
@@ -19168,9 +19538,9 @@
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="8" t="s">
         <v>5</v>
       </c>
@@ -19192,9 +19562,9 @@
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="8" t="s">
         <v>5</v>
       </c>
@@ -19216,9 +19586,9 @@
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="8" t="s">
         <v>5</v>
       </c>
@@ -19240,9 +19610,9 @@
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="8" t="s">
         <v>5</v>
       </c>
@@ -19264,9 +19634,9 @@
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="8" t="s">
         <v>5</v>
       </c>
@@ -19288,9 +19658,9 @@
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="8" t="s">
         <v>5</v>
       </c>
@@ -19312,9 +19682,9 @@
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="8" t="s">
         <v>5</v>
       </c>
@@ -19336,9 +19706,9 @@
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="8" t="s">
         <v>5</v>
       </c>
@@ -19360,9 +19730,9 @@
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="8" t="s">
         <v>5</v>
       </c>
@@ -19384,9 +19754,9 @@
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="8" t="s">
         <v>5</v>
       </c>
@@ -19408,9 +19778,9 @@
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="8" t="s">
         <v>5</v>
       </c>
@@ -19432,9 +19802,9 @@
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="8" t="s">
         <v>5</v>
       </c>
@@ -19456,9 +19826,9 @@
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="8" t="s">
         <v>5</v>
       </c>
@@ -19480,9 +19850,9 @@
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="8" t="s">
         <v>5</v>
       </c>
@@ -19504,9 +19874,9 @@
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="8" t="s">
         <v>5</v>
       </c>
@@ -19528,9 +19898,9 @@
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="8" t="s">
         <v>5</v>
       </c>
@@ -19552,9 +19922,9 @@
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
       <c r="F39" s="16" t="s">
         <v>5</v>
       </c>
@@ -34956,16 +35326,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C17:E17"/>
@@ -34982,55 +35351,56 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C4:D4 D40:D1000 C6:C7 C16:C1000 C9">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 C10">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="between">
       <formula>"土"</formula>
       <formula>"日"</formula>
     </cfRule>
